--- a/streamlit_data_for_scaler.xlsx
+++ b/streamlit_data_for_scaler.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/lopez_a_83_pg_com/Documents/P&amp;G Internship/0_PROJECTS/Project 3/3_1_Supply_Chain_Resilience/SCR_tool/0_SCR_Weights_from_comparison_matrix/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E6410ABD157F089E133DD9CBEFC2C74B746A367B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89DE6BA8-0930-4CE5-BB87-6707C0E8DF67}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,9 +48,6 @@
   </si>
   <si>
     <t>BCP_risk</t>
-  </si>
-  <si>
-    <t>jajajjaja</t>
   </si>
   <si>
     <t>24.6</t>
@@ -84,12 +100,14 @@
   <si>
     <t>53.0</t>
   </si>
+  <si>
+    <t>SCR_score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,49 +172,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -207,10 +224,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -248,71 +265,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -340,7 +357,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -363,11 +380,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -376,13 +393,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -392,7 +409,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -401,7 +418,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -410,7 +427,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -418,10 +435,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -486,26 +503,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -523,10 +542,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -534,10 +553,10 @@
         <v>38.5</v>
       </c>
       <c r="C2" s="5">
-        <v>837.4335666015143</v>
+        <v>837.43356660151426</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5">
         <v>3.92</v>
@@ -546,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0.300215088482756</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+        <v>0.30021508848275602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -560,7 +579,7 @@
         <v>1178.634559348008</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5">
         <v>5.78</v>
@@ -569,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>0.3231793716768303</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+        <v>0.32317937167683031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -580,10 +599,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="5">
-        <v>818.5507495071594</v>
+        <v>818.55074950715937</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5">
         <v>6.67</v>
@@ -592,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>0.41457604414927</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+        <v>0.41457604414927002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -603,10 +622,10 @@
         <v>28</v>
       </c>
       <c r="C5" s="5">
-        <v>872.360735047979</v>
+        <v>872.36073504797901</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5">
         <v>4.04</v>
@@ -615,10 +634,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>0.4041042301051361</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+        <v>0.40410423010513608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -626,10 +645,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="5">
-        <v>690.2515511155124</v>
+        <v>690.25155111551237</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5">
         <v>3.92</v>
@@ -638,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0.3435910786270949</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+        <v>0.34359107862709493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -652,7 +671,7 @@
         <v>1205.174194376991</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5">
         <v>2.15</v>
@@ -661,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>0.3361537175320962</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+        <v>0.33615371753209622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -672,10 +691,10 @@
         <v>10.5</v>
       </c>
       <c r="C8" s="5">
-        <v>1124.107031313811</v>
+        <v>1124.1070313138109</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5">
         <v>2.15</v>
@@ -684,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>-0.3223101576804844</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+        <v>-0.32231015768048438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -695,10 +714,10 @@
         <v>28</v>
       </c>
       <c r="C9" s="5">
-        <v>724.8807027919593</v>
+        <v>724.88070279195927</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="5">
         <v>0.97</v>
@@ -707,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>0.3366000086585924</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+        <v>0.33660000865859241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -721,7 +740,7 @@
         <v>1205.174194376991</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5">
         <v>2.15</v>
@@ -733,7 +752,7 @@
         <v>0.3986475047438835</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -741,10 +760,10 @@
         <v>119</v>
       </c>
       <c r="C11" s="5">
-        <v>7359.206415767943</v>
+        <v>7359.2064157679433</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="5">
         <v>22.73</v>
@@ -753,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="G11" s="5">
-        <v>-2.739080303080233</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+        <v>-2.7390803030802329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -764,22 +783,22 @@
         <v>49</v>
       </c>
       <c r="C12" s="5">
-        <v>3.842769462022032</v>
+        <v>3.8427694620220318</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>0.1509347840389478</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+        <v>0.15093478403894781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -787,10 +806,10 @@
         <v>21</v>
       </c>
       <c r="C13" s="5">
-        <v>1168.007274606258</v>
+        <v>1168.0072746062581</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="5">
         <v>2.15</v>
@@ -799,10 +818,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="5">
-        <v>-1.178553811293828</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+        <v>-1.1785538112938281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -810,10 +829,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="5">
-        <v>1157.2079517412</v>
+        <v>1157.2079517412001</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5">
         <v>2.15</v>
@@ -822,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="5">
-        <v>0.4026003463026495</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+        <v>0.40260034630264951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -836,7 +855,7 @@
         <v>1159.067403085367</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5">
         <v>2.15</v>
@@ -845,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="5">
-        <v>0.402447111107524</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+        <v>0.40244711110752401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -859,7 +878,7 @@
         <v>1138.270677427018</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="5">
         <v>2.15</v>
@@ -868,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>0.4041609447736874</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+        <v>0.40416094477368741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -882,7 +901,7 @@
         <v>1138.270677427018</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="5">
         <v>2.15</v>
@@ -891,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>0.4041609447736874</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+        <v>0.40416094477368741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -902,10 +921,10 @@
         <v>38.5</v>
       </c>
       <c r="C18" s="5">
-        <v>837.4335666015143</v>
+        <v>837.43356660151426</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="5">
         <v>3.92</v>
@@ -914,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>0.300215088482756</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+        <v>0.30021508848275602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -928,7 +947,7 @@
         <v>1178.634559348008</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="5">
         <v>5.78</v>
@@ -937,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <v>0.3231793716768303</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+        <v>0.32317937167683031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -948,10 +967,10 @@
         <v>21</v>
       </c>
       <c r="C20" s="5">
-        <v>818.5507495071594</v>
+        <v>818.55074950715937</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="5">
         <v>6.67</v>
@@ -960,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="5">
-        <v>0.41457604414927</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+        <v>0.41457604414927002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -971,10 +990,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="5">
-        <v>872.360735047979</v>
+        <v>872.36073504797901</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="5">
         <v>4.04</v>
@@ -983,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>0.4041042301051361</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+        <v>0.40410423010513608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -994,10 +1013,10 @@
         <v>35</v>
       </c>
       <c r="C22" s="5">
-        <v>690.2515511155124</v>
+        <v>690.25155111551237</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="5">
         <v>3.92</v>
@@ -1006,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="5">
-        <v>0.3435910786270949</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+        <v>0.34359107862709493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1020,7 +1039,7 @@
         <v>1205.174194376991</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="5">
         <v>2.15</v>
@@ -1029,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="5">
-        <v>0.3361537175320962</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>0.33615371753209622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1043,7 +1062,7 @@
         <v>1205.174194376991</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="5">
         <v>2.15</v>
@@ -1052,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="5">
-        <v>0.3361537175320962</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>0.33615371753209622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1063,10 +1082,10 @@
         <v>10.5</v>
       </c>
       <c r="C25" s="5">
-        <v>1124.107031313811</v>
+        <v>1124.1070313138109</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="5">
         <v>2.15</v>
@@ -1075,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="5">
-        <v>0.4365750477731757</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <v>0.43657504777317568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1089,7 +1108,7 @@
         <v>1205.174194376991</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5">
         <v>2.15</v>
@@ -1101,7 +1120,7 @@
         <v>0.3986475047438835</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1109,10 +1128,10 @@
         <v>119</v>
       </c>
       <c r="C27" s="5">
-        <v>7359.206415767943</v>
+        <v>7359.2064157679433</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="5">
         <v>22.73</v>
@@ -1121,10 +1140,10 @@
         <v>2</v>
       </c>
       <c r="G27" s="5">
-        <v>-2.739080303080233</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+        <v>-2.7390803030802329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1132,10 +1151,10 @@
         <v>280</v>
       </c>
       <c r="C28" s="5">
-        <v>367.8764159114132</v>
+        <v>367.87641591141318</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="5">
         <v>3.92</v>
@@ -1147,7 +1166,7 @@
         <v>-1.817124918601573</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1155,10 +1174,10 @@
         <v>14</v>
       </c>
       <c r="C29" s="5">
-        <v>1157.2079517412</v>
+        <v>1157.2079517412001</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="5">
         <v>2.15</v>
@@ -1167,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="5">
-        <v>0.4026003463026495</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <v>0.40260034630264951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1181,7 +1200,7 @@
         <v>1159.067403085367</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="5">
         <v>2.15</v>
@@ -1190,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <v>0.402447111107524</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+        <v>0.40244711110752401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1201,10 +1220,10 @@
         <v>21</v>
       </c>
       <c r="C31" s="5">
-        <v>1168.007274606258</v>
+        <v>1168.0072746062581</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="5">
         <v>2.15</v>
@@ -1213,10 +1232,10 @@
         <v>2</v>
       </c>
       <c r="G31" s="5">
-        <v>-1.178553811293828</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+        <v>-1.1785538112938281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1224,22 +1243,22 @@
         <v>21</v>
       </c>
       <c r="C32" s="5">
-        <v>15.2521020010495</v>
+        <v>15.252102001049501</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="5">
-        <v>-0.3589155022236669</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+        <v>-0.35891550222366692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1247,22 +1266,22 @@
         <v>21</v>
       </c>
       <c r="C33" s="5">
-        <v>15.2521020010495</v>
+        <v>15.252102001049501</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="5">
-        <v>-0.3589155022236669</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+        <v>-0.35891550222366692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1270,22 +1289,22 @@
         <v>21</v>
       </c>
       <c r="C34" s="5">
-        <v>15.2521020010495</v>
+        <v>15.252102001049501</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
       </c>
       <c r="G34" s="5">
-        <v>-0.3589155022236669</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+        <v>-0.35891550222366692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1293,22 +1312,22 @@
         <v>21</v>
       </c>
       <c r="C35" s="5">
-        <v>15.2521020010495</v>
+        <v>15.252102001049501</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
       </c>
       <c r="G35" s="5">
-        <v>-0.3589155022236669</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+        <v>-0.35891550222366692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1316,10 +1335,10 @@
         <v>84</v>
       </c>
       <c r="C36" s="5">
-        <v>6719.749062264338</v>
+        <v>6719.7490622643381</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="5">
         <v>22.73</v>
@@ -1331,7 +1350,7 @@
         <v>-1.615029234247725</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1339,22 +1358,22 @@
         <v>35</v>
       </c>
       <c r="C37" s="5">
-        <v>644.1499825941465</v>
+        <v>644.14998259414654</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
       </c>
       <c r="G37" s="5">
-        <v>-1.294615015695692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+        <v>-1.2946150156956919</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1362,22 +1381,22 @@
         <v>35</v>
       </c>
       <c r="C38" s="5">
-        <v>644.1499825941465</v>
+        <v>644.14998259414654</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F38" s="7">
         <v>2</v>
       </c>
       <c r="G38" s="5">
-        <v>-1.294615015695692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+        <v>-1.2946150156956919</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1385,22 +1404,22 @@
         <v>35</v>
       </c>
       <c r="C39" s="5">
-        <v>644.1499825941465</v>
+        <v>644.14998259414654</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F39" s="7">
         <v>2</v>
       </c>
       <c r="G39" s="5">
-        <v>-1.294615015695692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+        <v>-1.2946150156956919</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1408,22 +1427,22 @@
         <v>35</v>
       </c>
       <c r="C40" s="5">
-        <v>644.1499825941465</v>
+        <v>644.14998259414654</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F40" s="7">
         <v>2</v>
       </c>
       <c r="G40" s="5">
-        <v>-1.294615015695692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+        <v>-1.2946150156956919</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1431,22 +1450,22 @@
         <v>35</v>
       </c>
       <c r="C41" s="5">
-        <v>644.1499825941465</v>
+        <v>644.14998259414654</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F41" s="7">
         <v>2</v>
       </c>
       <c r="G41" s="5">
-        <v>-1.294615015695692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <v>-1.2946150156956919</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -1454,22 +1473,22 @@
         <v>35</v>
       </c>
       <c r="C42" s="5">
-        <v>644.1499825941465</v>
+        <v>644.14998259414654</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F42" s="7">
         <v>2</v>
       </c>
       <c r="G42" s="5">
-        <v>-1.294615015695692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+        <v>-1.2946150156956919</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -1477,22 +1496,22 @@
         <v>35</v>
       </c>
       <c r="C43" s="5">
-        <v>644.1499825941465</v>
+        <v>644.14998259414654</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F43" s="7">
         <v>2</v>
       </c>
       <c r="G43" s="5">
-        <v>-1.294615015695692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+        <v>-1.2946150156956919</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -1500,22 +1519,22 @@
         <v>35</v>
       </c>
       <c r="C44" s="5">
-        <v>644.1499825941465</v>
+        <v>644.14998259414654</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F44" s="7">
         <v>2</v>
       </c>
       <c r="G44" s="5">
-        <v>-1.294615015695692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+        <v>-1.2946150156956919</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -1523,22 +1542,22 @@
         <v>21</v>
       </c>
       <c r="C45" s="5">
-        <v>487.8109146803064</v>
+        <v>487.81091468030638</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F45" s="7">
         <v>0</v>
       </c>
       <c r="G45" s="5">
-        <v>0.3610266880786284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+        <v>0.36102668807862842</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -1546,22 +1565,22 @@
         <v>21</v>
       </c>
       <c r="C46" s="5">
-        <v>487.8109146803064</v>
+        <v>487.81091468030638</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F46" s="7">
         <v>0</v>
       </c>
       <c r="G46" s="5">
-        <v>0.3610266880786284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+        <v>0.36102668807862842</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -1569,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="C47" s="5">
-        <v>487.8109146803064</v>
+        <v>487.81091468030638</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F47" s="7">
         <v>0</v>
       </c>
       <c r="G47" s="5">
-        <v>0.3610266880786284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+        <v>0.36102668807862842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -1592,22 +1611,22 @@
         <v>21</v>
       </c>
       <c r="C48" s="5">
-        <v>487.8109146803064</v>
+        <v>487.81091468030638</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
       </c>
       <c r="G48" s="5">
-        <v>0.3610266880786284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+        <v>0.36102668807862842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -1615,22 +1634,22 @@
         <v>21</v>
       </c>
       <c r="C49" s="5">
-        <v>487.8109146803064</v>
+        <v>487.81091468030638</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F49" s="7">
         <v>0</v>
       </c>
       <c r="G49" s="5">
-        <v>0.3610266880786284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+        <v>0.36102668807862842</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -1638,22 +1657,22 @@
         <v>21</v>
       </c>
       <c r="C50" s="5">
-        <v>487.8109146803064</v>
+        <v>487.81091468030638</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F50" s="7">
         <v>0</v>
       </c>
       <c r="G50" s="5">
-        <v>0.3610266880786284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+        <v>0.36102668807862842</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -1661,22 +1680,22 @@
         <v>21</v>
       </c>
       <c r="C51" s="5">
-        <v>487.8109146803064</v>
+        <v>487.81091468030638</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F51" s="7">
         <v>0</v>
       </c>
       <c r="G51" s="5">
-        <v>0.3610266880786284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+        <v>0.36102668807862842</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -1684,22 +1703,22 @@
         <v>21</v>
       </c>
       <c r="C52" s="5">
-        <v>487.8109146803064</v>
+        <v>487.81091468030638</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F52" s="7">
         <v>0</v>
       </c>
       <c r="G52" s="5">
-        <v>0.3610266880786284</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+        <v>0.36102668807862842</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -1707,22 +1726,22 @@
         <v>35</v>
       </c>
       <c r="C53" s="5">
-        <v>644.1499825941465</v>
+        <v>644.14998259414654</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F53" s="7">
         <v>2</v>
       </c>
       <c r="G53" s="5">
-        <v>-1.294615015695692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+        <v>-1.2946150156956919</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -1730,22 +1749,22 @@
         <v>35</v>
       </c>
       <c r="C54" s="5">
-        <v>644.1499825941465</v>
+        <v>644.14998259414654</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F54" s="7">
         <v>2</v>
       </c>
       <c r="G54" s="5">
-        <v>-1.294615015695692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+        <v>-1.2946150156956919</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -1753,22 +1772,22 @@
         <v>21</v>
       </c>
       <c r="C55" s="5">
-        <v>15.2521020010495</v>
+        <v>15.252102001049501</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F55" s="7">
         <v>1</v>
       </c>
       <c r="G55" s="5">
-        <v>-0.3589155022236669</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+        <v>-0.35891550222366692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -1776,22 +1795,22 @@
         <v>21</v>
       </c>
       <c r="C56" s="5">
-        <v>14.37338479691394</v>
+        <v>14.373384796913941</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F56" s="7">
         <v>1</v>
       </c>
       <c r="G56" s="5">
-        <v>-0.3588430881738677</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+        <v>-0.35884308817386767</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -1799,22 +1818,22 @@
         <v>28</v>
       </c>
       <c r="C57" s="5">
-        <v>274.6650653782571</v>
+        <v>274.66506537825711</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57" s="5">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="5">
-        <v>-0.2906063489162484</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+        <v>-0.29060634891624842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -1822,10 +1841,10 @@
         <v>28</v>
       </c>
       <c r="C58" s="5">
-        <v>701.3625870144721</v>
+        <v>701.36258701447207</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" s="5">
         <v>4.16</v>
@@ -1834,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="5">
-        <v>-0.3828808600701055</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+        <v>-0.38288086007010552</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -1845,10 +1864,10 @@
         <v>28</v>
       </c>
       <c r="C59" s="5">
-        <v>701.3625870144721</v>
+        <v>701.36258701447207</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" s="5">
         <v>4.16</v>
@@ -1857,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="G59" s="5">
-        <v>-0.3828808600701055</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+        <v>-0.38288086007010552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -1868,10 +1887,10 @@
         <v>28</v>
       </c>
       <c r="C60" s="5">
-        <v>701.3625870144721</v>
+        <v>701.36258701447207</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="5">
         <v>4.16</v>
@@ -1880,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="G60" s="5">
-        <v>-0.3828808600701055</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+        <v>-0.38288086007010552</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -1891,10 +1910,10 @@
         <v>28</v>
       </c>
       <c r="C61" s="5">
-        <v>701.3625870144721</v>
+        <v>701.36258701447207</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" s="5">
         <v>4.16</v>
@@ -1903,10 +1922,10 @@
         <v>1</v>
       </c>
       <c r="G61" s="5">
-        <v>-0.3828808600701055</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+        <v>-0.38288086007010552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -1914,10 +1933,10 @@
         <v>28</v>
       </c>
       <c r="C62" s="5">
-        <v>701.3625870144721</v>
+        <v>701.36258701447207</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62" s="5">
         <v>4.16</v>
@@ -1926,10 +1945,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="5">
-        <v>-0.3828808600701055</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+        <v>-0.38288086007010552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -1937,10 +1956,10 @@
         <v>35</v>
       </c>
       <c r="C63" s="5">
-        <v>518.5399416630631</v>
+        <v>518.53994166306313</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63" s="5">
         <v>3.92</v>
@@ -1949,10 +1968,10 @@
         <v>2</v>
       </c>
       <c r="G63" s="5">
-        <v>-1.160028780795091</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+        <v>-1.1600287807950911</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -1960,10 +1979,10 @@
         <v>35</v>
       </c>
       <c r="C64" s="5">
-        <v>518.5399416630631</v>
+        <v>518.53994166306313</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64" s="5">
         <v>3.92</v>
@@ -1972,10 +1991,10 @@
         <v>2</v>
       </c>
       <c r="G64" s="5">
-        <v>-1.160028780795091</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+        <v>-1.1600287807950911</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -1983,10 +2002,10 @@
         <v>35</v>
       </c>
       <c r="C65" s="5">
-        <v>518.5399416630631</v>
+        <v>518.53994166306313</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="5">
         <v>3.92</v>
@@ -1995,10 +2014,10 @@
         <v>2</v>
       </c>
       <c r="G65" s="5">
-        <v>-1.160028780795091</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+        <v>-1.1600287807950911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -2006,10 +2025,10 @@
         <v>35</v>
       </c>
       <c r="C66" s="5">
-        <v>518.5399416630631</v>
+        <v>518.53994166306313</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66" s="5">
         <v>3.92</v>
@@ -2018,10 +2037,10 @@
         <v>2</v>
       </c>
       <c r="G66" s="5">
-        <v>-1.160028780795091</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+        <v>-1.1600287807950911</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -2029,10 +2048,10 @@
         <v>35</v>
       </c>
       <c r="C67" s="5">
-        <v>518.5399416630631</v>
+        <v>518.53994166306313</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E67" s="5">
         <v>3.92</v>
@@ -2041,10 +2060,10 @@
         <v>2</v>
       </c>
       <c r="G67" s="5">
-        <v>-1.160028780795091</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+        <v>-1.1600287807950911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -2052,10 +2071,10 @@
         <v>35</v>
       </c>
       <c r="C68" s="5">
-        <v>518.5399416630631</v>
+        <v>518.53994166306313</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68" s="5">
         <v>3.92</v>
@@ -2064,10 +2083,10 @@
         <v>2</v>
       </c>
       <c r="G68" s="5">
-        <v>-1.160028780795091</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+        <v>-1.1600287807950911</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -2075,10 +2094,10 @@
         <v>14</v>
       </c>
       <c r="C69" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E69" s="5">
         <v>3.92</v>
@@ -2087,10 +2106,10 @@
         <v>0</v>
       </c>
       <c r="G69" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -2098,10 +2117,10 @@
         <v>14</v>
       </c>
       <c r="C70" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E70" s="5">
         <v>3.92</v>
@@ -2110,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -2121,10 +2140,10 @@
         <v>14</v>
       </c>
       <c r="C71" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E71" s="5">
         <v>3.92</v>
@@ -2133,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="G71" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -2144,10 +2163,10 @@
         <v>14</v>
       </c>
       <c r="C72" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72" s="5">
         <v>3.92</v>
@@ -2156,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="G72" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -2167,10 +2186,10 @@
         <v>14</v>
       </c>
       <c r="C73" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73" s="5">
         <v>3.92</v>
@@ -2179,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="G73" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -2190,10 +2209,10 @@
         <v>14</v>
       </c>
       <c r="C74" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74" s="5">
         <v>3.92</v>
@@ -2202,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="G74" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -2213,10 +2232,10 @@
         <v>14</v>
       </c>
       <c r="C75" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75" s="5">
         <v>3.92</v>
@@ -2225,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="G75" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -2236,10 +2255,10 @@
         <v>14</v>
       </c>
       <c r="C76" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76" s="5">
         <v>3.92</v>
@@ -2248,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="G76" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -2259,10 +2278,10 @@
         <v>14</v>
       </c>
       <c r="C77" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" s="5">
         <v>3.92</v>
@@ -2271,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="G77" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -2282,10 +2301,10 @@
         <v>14</v>
       </c>
       <c r="C78" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78" s="5">
         <v>3.92</v>
@@ -2294,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="G78" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -2305,10 +2324,10 @@
         <v>14</v>
       </c>
       <c r="C79" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" s="5">
         <v>3.92</v>
@@ -2317,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="G79" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -2328,10 +2347,10 @@
         <v>14</v>
       </c>
       <c r="C80" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" s="5">
         <v>3.92</v>
@@ -2340,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="G80" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -2351,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="C81" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E81" s="5">
         <v>3.92</v>
@@ -2363,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="G81" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -2374,10 +2393,10 @@
         <v>14</v>
       </c>
       <c r="C82" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82" s="5">
         <v>3.92</v>
@@ -2386,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="G82" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -2397,10 +2416,10 @@
         <v>14</v>
       </c>
       <c r="C83" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E83" s="5">
         <v>3.92</v>
@@ -2409,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -2420,10 +2439,10 @@
         <v>14</v>
       </c>
       <c r="C84" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E84" s="5">
         <v>3.92</v>
@@ -2432,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="G84" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -2443,10 +2462,10 @@
         <v>14</v>
       </c>
       <c r="C85" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E85" s="5">
         <v>3.92</v>
@@ -2455,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -2466,10 +2485,10 @@
         <v>14</v>
       </c>
       <c r="C86" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E86" s="5">
         <v>3.92</v>
@@ -2478,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="G86" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -2489,10 +2508,10 @@
         <v>14</v>
       </c>
       <c r="C87" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E87" s="5">
         <v>3.92</v>
@@ -2501,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="G87" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -2512,10 +2531,10 @@
         <v>14</v>
       </c>
       <c r="C88" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E88" s="5">
         <v>3.92</v>
@@ -2524,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="G88" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -2535,10 +2554,10 @@
         <v>14</v>
       </c>
       <c r="C89" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E89" s="5">
         <v>3.92</v>
@@ -2547,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="G89" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -2558,10 +2577,10 @@
         <v>14</v>
       </c>
       <c r="C90" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E90" s="5">
         <v>3.92</v>
@@ -2570,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="G90" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -2581,10 +2600,10 @@
         <v>14</v>
       </c>
       <c r="C91" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E91" s="5">
         <v>3.92</v>
@@ -2593,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -2604,10 +2623,10 @@
         <v>14</v>
       </c>
       <c r="C92" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92" s="5">
         <v>3.92</v>
@@ -2616,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="G92" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -2627,10 +2646,10 @@
         <v>14</v>
       </c>
       <c r="C93" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E93" s="5">
         <v>3.92</v>
@@ -2639,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="G93" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -2650,10 +2669,10 @@
         <v>14</v>
       </c>
       <c r="C94" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E94" s="5">
         <v>3.92</v>
@@ -2662,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="G94" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -2673,10 +2692,10 @@
         <v>14</v>
       </c>
       <c r="C95" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95" s="5">
         <v>3.92</v>
@@ -2685,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="G95" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -2696,10 +2715,10 @@
         <v>14</v>
       </c>
       <c r="C96" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E96" s="5">
         <v>3.92</v>
@@ -2708,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -2719,10 +2738,10 @@
         <v>14</v>
       </c>
       <c r="C97" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97" s="5">
         <v>3.92</v>
@@ -2731,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="G97" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -2742,10 +2761,10 @@
         <v>14</v>
       </c>
       <c r="C98" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E98" s="5">
         <v>3.92</v>
@@ -2754,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="G98" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -2765,10 +2784,10 @@
         <v>14</v>
       </c>
       <c r="C99" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E99" s="5">
         <v>3.92</v>
@@ -2777,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="G99" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -2788,10 +2807,10 @@
         <v>14</v>
       </c>
       <c r="C100" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E100" s="5">
         <v>3.92</v>
@@ -2800,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -2811,10 +2830,10 @@
         <v>14</v>
       </c>
       <c r="C101" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E101" s="5">
         <v>3.92</v>
@@ -2823,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="G101" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -2834,10 +2853,10 @@
         <v>14</v>
       </c>
       <c r="C102" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E102" s="5">
         <v>3.92</v>
@@ -2846,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -2857,10 +2876,10 @@
         <v>14</v>
       </c>
       <c r="C103" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E103" s="5">
         <v>3.92</v>
@@ -2869,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="G103" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -2880,10 +2899,10 @@
         <v>14</v>
       </c>
       <c r="C104" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E104" s="5">
         <v>3.92</v>
@@ -2892,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -2903,10 +2922,10 @@
         <v>14</v>
       </c>
       <c r="C105" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E105" s="5">
         <v>3.92</v>
@@ -2915,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -2926,10 +2945,10 @@
         <v>14</v>
       </c>
       <c r="C106" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E106" s="5">
         <v>3.92</v>
@@ -2938,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="G106" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -2949,10 +2968,10 @@
         <v>14</v>
       </c>
       <c r="C107" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E107" s="5">
         <v>3.92</v>
@@ -2961,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="G107" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -2972,10 +2991,10 @@
         <v>14</v>
       </c>
       <c r="C108" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108" s="5">
         <v>3.92</v>
@@ -2984,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="G108" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -2995,10 +3014,10 @@
         <v>14</v>
       </c>
       <c r="C109" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E109" s="5">
         <v>3.92</v>
@@ -3007,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="G109" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -3018,10 +3037,10 @@
         <v>14</v>
       </c>
       <c r="C110" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110" s="5">
         <v>3.92</v>
@@ -3030,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="G110" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -3041,10 +3060,10 @@
         <v>14</v>
       </c>
       <c r="C111" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E111" s="5">
         <v>3.92</v>
@@ -3053,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="G111" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -3064,10 +3083,10 @@
         <v>14</v>
       </c>
       <c r="C112" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E112" s="5">
         <v>3.92</v>
@@ -3076,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="G112" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -3087,10 +3106,10 @@
         <v>14</v>
       </c>
       <c r="C113" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E113" s="5">
         <v>3.92</v>
@@ -3099,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="G113" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -3110,10 +3129,10 @@
         <v>14</v>
       </c>
       <c r="C114" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E114" s="5">
         <v>3.92</v>
@@ -3122,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="G114" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -3133,10 +3152,10 @@
         <v>14</v>
       </c>
       <c r="C115" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E115" s="5">
         <v>3.92</v>
@@ -3145,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="G115" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -3156,10 +3175,10 @@
         <v>14</v>
       </c>
       <c r="C116" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E116" s="5">
         <v>3.92</v>
@@ -3168,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="G116" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -3179,10 +3198,10 @@
         <v>14</v>
       </c>
       <c r="C117" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E117" s="5">
         <v>3.92</v>
@@ -3191,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="G117" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -3202,10 +3221,10 @@
         <v>14</v>
       </c>
       <c r="C118" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E118" s="5">
         <v>3.92</v>
@@ -3214,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="G118" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -3225,10 +3244,10 @@
         <v>14</v>
       </c>
       <c r="C119" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E119" s="5">
         <v>3.92</v>
@@ -3237,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="G119" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -3248,10 +3267,10 @@
         <v>14</v>
       </c>
       <c r="C120" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E120" s="5">
         <v>3.92</v>
@@ -3260,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="G120" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -3271,10 +3290,10 @@
         <v>14</v>
       </c>
       <c r="C121" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E121" s="5">
         <v>3.92</v>
@@ -3283,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="G121" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -3294,10 +3313,10 @@
         <v>14</v>
       </c>
       <c r="C122" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E122" s="5">
         <v>3.92</v>
@@ -3306,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="G122" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -3317,10 +3336,10 @@
         <v>14</v>
       </c>
       <c r="C123" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E123" s="5">
         <v>3.92</v>
@@ -3329,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="G123" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -3340,10 +3359,10 @@
         <v>14</v>
       </c>
       <c r="C124" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E124" s="5">
         <v>3.92</v>
@@ -3352,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="G124" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -3363,10 +3382,10 @@
         <v>14</v>
       </c>
       <c r="C125" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E125" s="5">
         <v>3.92</v>
@@ -3375,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="G125" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -3386,10 +3405,10 @@
         <v>14</v>
       </c>
       <c r="C126" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E126" s="5">
         <v>3.92</v>
@@ -3398,10 +3417,10 @@
         <v>0</v>
       </c>
       <c r="G126" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -3409,10 +3428,10 @@
         <v>14</v>
       </c>
       <c r="C127" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E127" s="5">
         <v>3.92</v>
@@ -3421,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="G127" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -3432,10 +3451,10 @@
         <v>14</v>
       </c>
       <c r="C128" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E128" s="5">
         <v>3.92</v>
@@ -3444,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="G128" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -3455,10 +3474,10 @@
         <v>14</v>
       </c>
       <c r="C129" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E129" s="5">
         <v>3.92</v>
@@ -3467,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="G129" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -3478,10 +3497,10 @@
         <v>14</v>
       </c>
       <c r="C130" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E130" s="5">
         <v>3.92</v>
@@ -3490,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="G130" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -3501,10 +3520,10 @@
         <v>14</v>
       </c>
       <c r="C131" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E131" s="5">
         <v>3.92</v>
@@ -3513,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="G131" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -3524,10 +3543,10 @@
         <v>14</v>
       </c>
       <c r="C132" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E132" s="5">
         <v>3.92</v>
@@ -3536,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="G132" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -3547,10 +3566,10 @@
         <v>14</v>
       </c>
       <c r="C133" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E133" s="5">
         <v>3.92</v>
@@ -3559,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="G133" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -3570,10 +3589,10 @@
         <v>14</v>
       </c>
       <c r="C134" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E134" s="5">
         <v>3.92</v>
@@ -3582,10 +3601,10 @@
         <v>0</v>
       </c>
       <c r="G134" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -3593,10 +3612,10 @@
         <v>14</v>
       </c>
       <c r="C135" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E135" s="5">
         <v>3.92</v>
@@ -3605,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="G135" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -3616,10 +3635,10 @@
         <v>14</v>
       </c>
       <c r="C136" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E136" s="5">
         <v>3.92</v>
@@ -3628,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="G136" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -3639,10 +3658,10 @@
         <v>14</v>
       </c>
       <c r="C137" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E137" s="5">
         <v>3.92</v>
@@ -3651,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="G137" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -3662,10 +3681,10 @@
         <v>14</v>
       </c>
       <c r="C138" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E138" s="5">
         <v>3.92</v>
@@ -3674,10 +3693,10 @@
         <v>0</v>
       </c>
       <c r="G138" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -3685,10 +3704,10 @@
         <v>14</v>
       </c>
       <c r="C139" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E139" s="5">
         <v>3.92</v>
@@ -3697,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="G139" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -3708,10 +3727,10 @@
         <v>14</v>
       </c>
       <c r="C140" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E140" s="5">
         <v>3.92</v>
@@ -3720,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="G140" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -3731,10 +3750,10 @@
         <v>14</v>
       </c>
       <c r="C141" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E141" s="5">
         <v>3.92</v>
@@ -3743,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="G141" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -3754,10 +3773,10 @@
         <v>14</v>
       </c>
       <c r="C142" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E142" s="5">
         <v>3.92</v>
@@ -3766,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="G142" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -3777,10 +3796,10 @@
         <v>14</v>
       </c>
       <c r="C143" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E143" s="5">
         <v>3.92</v>
@@ -3789,10 +3808,10 @@
         <v>0</v>
       </c>
       <c r="G143" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -3800,10 +3819,10 @@
         <v>14</v>
       </c>
       <c r="C144" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E144" s="5">
         <v>3.92</v>
@@ -3812,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="G144" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -3823,10 +3842,10 @@
         <v>14</v>
       </c>
       <c r="C145" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E145" s="5">
         <v>3.92</v>
@@ -3835,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="G145" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -3846,10 +3865,10 @@
         <v>14</v>
       </c>
       <c r="C146" s="5">
-        <v>434.0179090059719</v>
+        <v>434.01790900597189</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E146" s="5">
         <v>3.92</v>
@@ -3858,10 +3877,10 @@
         <v>0</v>
       </c>
       <c r="G146" s="5">
-        <v>0.5521883529049199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+        <v>0.55218835290491985</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -3869,10 +3888,10 @@
         <v>28</v>
       </c>
       <c r="C147" s="5">
-        <v>597.9568859208574</v>
+        <v>597.95688592085742</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E147" s="5">
         <v>3.92</v>
@@ -3881,10 +3900,10 @@
         <v>2</v>
       </c>
       <c r="G147" s="5">
-        <v>-1.104079650418654</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+        <v>-1.1040796504186541</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -3895,7 +3914,7 @@
         <v>699.6956914953937</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E148" s="5">
         <v>6.67</v>
@@ -3907,7 +3926,7 @@
         <v>-1.280881023055624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -3915,10 +3934,10 @@
         <v>42</v>
       </c>
       <c r="C149" s="5">
-        <v>529.1227625676603</v>
+        <v>529.12276256766029</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E149" s="5">
         <v>3.92</v>
@@ -3927,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="G149" s="5">
-        <v>0.2943757250946283</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+        <v>0.29437572509462828</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -3941,7 +3960,7 @@
         <v>1014.15298009191</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E150" s="5">
         <v>6.67</v>
@@ -3950,10 +3969,10 @@
         <v>1</v>
       </c>
       <c r="G150" s="5">
-        <v>-0.547909872372926</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+        <v>-0.54790987237292599</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -3961,10 +3980,10 @@
         <v>42</v>
       </c>
       <c r="C151" s="5">
-        <v>7560.481489978036</v>
+        <v>7560.4814899780358</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E151" s="5">
         <v>22.73</v>
@@ -3976,7 +3995,7 @@
         <v>-0.5504650746378541</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -3984,10 +4003,10 @@
         <v>28</v>
       </c>
       <c r="C152" s="5">
-        <v>971.2738842035701</v>
+        <v>971.27388420357011</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E152" s="5">
         <v>6.67</v>
@@ -3999,7 +4018,7 @@
         <v>-1.178273887615827</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -4007,10 +4026,10 @@
         <v>28</v>
       </c>
       <c r="C153" s="5">
-        <v>7560.481489978036</v>
+        <v>7560.4814899780358</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E153" s="5">
         <v>22.73</v>
@@ -4022,7 +4041,7 @@
         <v>-1.18436270566794</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -4033,7 +4052,7 @@
         <v>315.2016464543039</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E154" s="5">
         <v>3.92</v>
@@ -4042,10 +4061,10 @@
         <v>1</v>
       </c>
       <c r="G154" s="5">
-        <v>-0.3843867059344853</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+        <v>-0.38438670593448532</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -4053,10 +4072,10 @@
         <v>84</v>
       </c>
       <c r="C155" s="5">
-        <v>6692.331763491034</v>
+        <v>6692.3317634910336</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E155" s="5">
         <v>22.73</v>
@@ -4068,7 +4087,7 @@
         <v>-1.612769806949174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -4076,10 +4095,10 @@
         <v>84</v>
       </c>
       <c r="C156" s="5">
-        <v>6692.331763491034</v>
+        <v>6692.3317634910336</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E156" s="5">
         <v>22.73</v>
@@ -4088,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="G156" s="5">
-        <v>-0.8538846014955137</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+        <v>-0.85388460149551371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -4099,10 +4118,10 @@
         <v>28</v>
       </c>
       <c r="C157" s="5">
-        <v>106.1048990342129</v>
+        <v>106.10489903421291</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E157" s="5">
         <v>4.63</v>
@@ -4111,10 +4130,10 @@
         <v>2</v>
       </c>
       <c r="G157" s="5">
-        <v>-1.151732473493121</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+        <v>-1.1517324734931209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -4122,10 +4141,10 @@
         <v>28</v>
       </c>
       <c r="C158" s="5">
-        <v>106.1048990342129</v>
+        <v>106.10489903421291</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E158" s="5">
         <v>4.63</v>
@@ -4134,10 +4153,10 @@
         <v>2</v>
       </c>
       <c r="G158" s="5">
-        <v>-1.151732473493121</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+        <v>-1.1517324734931209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -4145,10 +4164,10 @@
         <v>28</v>
       </c>
       <c r="C159" s="5">
-        <v>106.1048990342129</v>
+        <v>106.10489903421291</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E159" s="5">
         <v>4.63</v>
@@ -4157,10 +4176,10 @@
         <v>2</v>
       </c>
       <c r="G159" s="5">
-        <v>-1.151732473493121</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+        <v>-1.1517324734931209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -4171,7 +4190,7 @@
         <v>196.168954471668</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E160" s="5">
         <v>4.63</v>
@@ -4180,10 +4199,10 @@
         <v>2</v>
       </c>
       <c r="G160" s="5">
-        <v>-1.159154546220129</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+        <v>-1.1591545462201289</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -4194,7 +4213,7 @@
         <v>196.168954471668</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E161" s="5">
         <v>4.63</v>
@@ -4203,10 +4222,10 @@
         <v>1</v>
       </c>
       <c r="G161" s="5">
-        <v>-0.4002693407664688</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+        <v>-0.40026934076646881</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -4217,7 +4236,7 @@
         <v>196.168954471668</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E162" s="5">
         <v>4.63</v>
@@ -4226,10 +4245,10 @@
         <v>1</v>
       </c>
       <c r="G162" s="5">
-        <v>-0.4002693407664688</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+        <v>-0.40026934076646881</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -4237,10 +4256,10 @@
         <v>28</v>
       </c>
       <c r="C163" s="5">
-        <v>106.1048990342129</v>
+        <v>106.10489903421291</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E163" s="5">
         <v>4.63</v>
@@ -4249,10 +4268,10 @@
         <v>1</v>
       </c>
       <c r="G163" s="5">
-        <v>-0.3928472680394604</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+        <v>-0.39284726803946041</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -4260,22 +4279,22 @@
         <v>42</v>
       </c>
       <c r="C164" s="5">
-        <v>602.7055811370002</v>
+        <v>602.70558113700019</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E164" s="5">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F164" s="7">
         <v>0</v>
       </c>
       <c r="G164" s="5">
-        <v>0.3162578495913861</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+        <v>0.31625784959138609</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -4283,10 +4302,10 @@
         <v>42</v>
       </c>
       <c r="C165" s="5">
-        <v>790.4893408380376</v>
+        <v>790.48934083803761</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E165" s="5">
         <v>4.04</v>
@@ -4295,10 +4314,10 @@
         <v>1</v>
       </c>
       <c r="G165" s="5">
-        <v>-0.4730216246071561</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+        <v>-0.47302162460715608</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -4306,10 +4325,10 @@
         <v>84</v>
       </c>
       <c r="C166" s="5">
-        <v>665.9940592864795</v>
+        <v>665.99405928647946</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E166" s="5">
         <v>4.16</v>
@@ -4318,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="G166" s="5">
-        <v>-0.1210312735993607</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+        <v>-0.12103127359936069</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -4329,13 +4348,13 @@
         <v>28</v>
       </c>
       <c r="C167" s="5">
-        <v>45.13524591444322</v>
+        <v>45.135245914443217</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E167" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F167" s="7">
         <v>0</v>
@@ -4344,7 +4363,7 @@
         <v>0.3350132813260463</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -4352,10 +4371,10 @@
         <v>56</v>
       </c>
       <c r="C168" s="5">
-        <v>1220.48857715661</v>
+        <v>1220.4885771566101</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E168" s="5">
         <v>5.78</v>
@@ -4364,10 +4383,10 @@
         <v>0</v>
       </c>
       <c r="G168" s="5">
-        <v>0.02600943147141266</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+        <v>2.6009431471412658E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -4375,10 +4394,10 @@
         <v>56</v>
       </c>
       <c r="C169" s="5">
-        <v>7726.109635106045</v>
+        <v>7726.1096351060451</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E169" s="5">
         <v>22.73</v>
@@ -4387,10 +4406,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="5">
-        <v>-1.447987074870631</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+        <v>-1.4479870748706309</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -4398,10 +4417,10 @@
         <v>84</v>
       </c>
       <c r="C170" s="5">
-        <v>7696.967044683911</v>
+        <v>7696.9670446839109</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E170" s="5">
         <v>22.73</v>
@@ -4413,7 +4432,7 @@
         <v>-2.454445822620237</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -4421,13 +4440,13 @@
         <v>42</v>
       </c>
       <c r="C171" s="5">
-        <v>4.927253680745152</v>
+        <v>4.9272536807451521</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E171" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F171" s="7">
         <v>0</v>
@@ -4436,7 +4455,7 @@
         <v>0.2133392001836257</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -4444,10 +4463,10 @@
         <v>7</v>
       </c>
       <c r="C172" s="5">
-        <v>837.4040893391528</v>
+        <v>837.40408933915285</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E172" s="5">
         <v>0.97</v>
@@ -4456,10 +4475,10 @@
         <v>0</v>
       </c>
       <c r="G172" s="5">
-        <v>0.514808450543827</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+        <v>0.51480845054382696</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -4467,22 +4486,22 @@
         <v>7</v>
       </c>
       <c r="C173" s="5">
-        <v>276.2639411993372</v>
+        <v>276.26394119933718</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E173" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F173" s="7">
         <v>0</v>
       </c>
       <c r="G173" s="5">
-        <v>0.5034475994170018</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+        <v>0.50344759941700179</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -4493,7 +4512,7 @@
         <v>738.0068747713857</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E174" s="5">
         <v>4.04</v>
@@ -4502,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="G174" s="5">
-        <v>0.4419592251445605</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+        <v>0.44195922514456049</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -4513,10 +4532,10 @@
         <v>21</v>
       </c>
       <c r="C175" s="5">
-        <v>780.994157226469</v>
+        <v>780.99415722646904</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E175" s="5">
         <v>9.68</v>
@@ -4525,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="G175" s="5">
-        <v>0.3302877307719329</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+        <v>0.33028773077193291</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -4536,10 +4555,10 @@
         <v>20</v>
       </c>
       <c r="C176" s="5">
-        <v>208.3589004895512</v>
+        <v>208.35890048955119</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E176" s="5">
         <v>1.03</v>
@@ -4548,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="G176" s="5">
-        <v>0.572270639955764</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+        <v>0.57227063995576399</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -4559,10 +4578,10 @@
         <v>31</v>
       </c>
       <c r="C177" s="5">
-        <v>736.2421438329204</v>
+        <v>736.24214383292042</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E177" s="5">
         <v>3.92</v>
@@ -4571,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="G177" s="5">
-        <v>0.3755117836006842</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+        <v>0.37551178360068421</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -4582,10 +4601,10 @@
         <v>4</v>
       </c>
       <c r="C178" s="5">
-        <v>647.7858623267582</v>
+        <v>647.78586232675821</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E178" s="5">
         <v>3.92</v>
@@ -4594,10 +4613,10 @@
         <v>2</v>
       </c>
       <c r="G178" s="5">
-        <v>-0.8939215843758443</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+        <v>-0.89392158437584435</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -4605,10 +4624,10 @@
         <v>21</v>
       </c>
       <c r="C179" s="5">
-        <v>641.0783697551121</v>
+        <v>641.07836975511213</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E179" s="5">
         <v>3.92</v>
@@ -4617,10 +4636,10 @@
         <v>2</v>
       </c>
       <c r="G179" s="5">
-        <v>-1.045139453899178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+        <v>-1.0451394538991781</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -4631,7 +4650,7 @@
         <v>1192.757148061072</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E180" s="5">
         <v>5.78</v>
@@ -4643,7 +4662,7 @@
         <v>-1.177006728968562</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>179</v>
       </c>
@@ -4651,10 +4670,10 @@
         <v>28</v>
       </c>
       <c r="C181" s="5">
-        <v>195.2963218323391</v>
+        <v>195.29632183233909</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E181" s="5">
         <v>1.03</v>
@@ -4663,10 +4682,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="5">
-        <v>-0.2569595648756475</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+        <v>-0.25695956487564747</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -4677,19 +4696,19 @@
         <v>352.0099531054563</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E182" s="5">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F182" s="7">
         <v>0</v>
       </c>
       <c r="G182" s="5">
-        <v>0.4619049554401841</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+        <v>0.46190495544018412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -4697,22 +4716,22 @@
         <v>42</v>
       </c>
       <c r="C183" s="5">
-        <v>982.4472225396281</v>
+        <v>982.44722253962811</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E183" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F183" s="7">
         <v>1</v>
       </c>
       <c r="G183" s="5">
-        <v>-0.626102274535657</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+        <v>-0.62610227453565703</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -4723,19 +4742,19 @@
         <v>352.0099531054563</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E184" s="5">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F184" s="7">
         <v>0</v>
       </c>
       <c r="G184" s="5">
-        <v>0.4619049554401841</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+        <v>0.46190495544018412</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>183</v>
       </c>
@@ -4746,7 +4765,7 @@
         <v>1033.000044931536</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E185" s="5">
         <v>4.16</v>
@@ -4755,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="G185" s="5">
-        <v>0.3486744930944806</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+        <v>0.34867449309448062</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -4766,10 +4785,10 @@
         <v>49</v>
       </c>
       <c r="C186" s="5">
-        <v>1482.383392563958</v>
+        <v>1482.3833925639581</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E186" s="5">
         <v>5.78</v>
@@ -4778,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="G186" s="5">
-        <v>0.06692077541725527</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+        <v>6.6920775417255274E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>185</v>
       </c>
@@ -4789,10 +4808,10 @@
         <v>70</v>
       </c>
       <c r="C187" s="5">
-        <v>8010.853082471393</v>
+        <v>8010.8530824713926</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E187" s="5">
         <v>22.73</v>
@@ -4801,10 +4820,10 @@
         <v>2</v>
       </c>
       <c r="G187" s="5">
-        <v>-2.355325226861298</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+        <v>-2.3553252268612979</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>186</v>
       </c>
@@ -4812,10 +4831,10 @@
         <v>14</v>
       </c>
       <c r="C188" s="5">
-        <v>410.2096332497158</v>
+        <v>410.20963324971581</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E188" s="5">
         <v>0.97</v>
@@ -4824,10 +4843,10 @@
         <v>0</v>
       </c>
       <c r="G188" s="5">
-        <v>0.4875192552890658</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+        <v>0.48751925528906581</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>187</v>
       </c>
@@ -4835,22 +4854,22 @@
         <v>84</v>
       </c>
       <c r="C189" s="5">
-        <v>939.2583605924024</v>
+        <v>939.25836059240237</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E189" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F189" s="7">
         <v>0</v>
       </c>
       <c r="G189" s="5">
-        <v>-0.2386206491094806</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+        <v>-0.23862064910948061</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -4858,10 +4877,10 @@
         <v>14</v>
       </c>
       <c r="C190" s="5">
-        <v>112.1052873130918</v>
+        <v>112.10528731309179</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E190" s="5">
         <v>4.63</v>
@@ -4873,7 +4892,7 @@
         <v>0.4905310269072457</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>189</v>
       </c>
@@ -4881,10 +4900,10 @@
         <v>21</v>
       </c>
       <c r="C191" s="5">
-        <v>990.8903919002469</v>
+        <v>990.89039190024687</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E191" s="5">
         <v>4.04</v>
@@ -4893,10 +4912,10 @@
         <v>0</v>
       </c>
       <c r="G191" s="5">
-        <v>0.4568301279054165</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+        <v>0.45683012790541649</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -4907,7 +4926,7 @@
         <v>1714.917225863134</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E192" s="5">
         <v>9.68</v>
@@ -4916,10 +4935,10 @@
         <v>0</v>
       </c>
       <c r="G192" s="5">
-        <v>0.2533242307031863</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+        <v>0.25332423070318633</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>191</v>
       </c>
@@ -4927,10 +4946,10 @@
         <v>21</v>
       </c>
       <c r="C193" s="5">
-        <v>875.4877598899199</v>
+        <v>875.48775988991986</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E193" s="5">
         <v>1.03</v>
@@ -4939,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="G193" s="5">
-        <v>0.508365652540276</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+        <v>0.50836565254027599</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>192</v>
       </c>
@@ -4950,22 +4969,22 @@
         <v>21</v>
       </c>
       <c r="C194" s="5">
-        <v>927.9723651503791</v>
+        <v>927.97236515037912</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E194" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F194" s="7">
         <v>0</v>
       </c>
       <c r="G194" s="5">
-        <v>0.3247535013878173</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+        <v>0.32475350138781728</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>193</v>
       </c>
@@ -4973,10 +4992,10 @@
         <v>28</v>
       </c>
       <c r="C195" s="5">
-        <v>620.974712609509</v>
+        <v>620.97471260950897</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E195" s="5">
         <v>3.92</v>
@@ -4985,10 +5004,10 @@
         <v>0</v>
       </c>
       <c r="G195" s="5">
-        <v>0.4117938885027111</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+        <v>0.41179388850271109</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>194</v>
       </c>
@@ -4999,7 +5018,7 @@
         <v>804.6000604844877</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E196" s="5">
         <v>3.92</v>
@@ -5008,10 +5027,10 @@
         <v>2</v>
       </c>
       <c r="G196" s="5">
-        <v>-0.9068444577430383</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+        <v>-0.90684445774303835</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>195</v>
       </c>
@@ -5019,10 +5038,10 @@
         <v>21</v>
       </c>
       <c r="C197" s="5">
-        <v>855.658255676155</v>
+        <v>855.65825567615502</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E197" s="5">
         <v>3.92</v>
@@ -5031,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="G197" s="5">
-        <v>0.4549476813514612</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+        <v>0.45494768135146119</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>196</v>
       </c>
@@ -5042,10 +5061,10 @@
         <v>21</v>
       </c>
       <c r="C198" s="5">
-        <v>1425.372660129265</v>
+        <v>1425.3726601292649</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E198" s="5">
         <v>5.78</v>
@@ -5054,10 +5073,10 @@
         <v>2</v>
       </c>
       <c r="G198" s="5">
-        <v>-1.196176299332839</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+        <v>-1.1961762993328391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>197</v>
       </c>
@@ -5068,7 +5087,7 @@
         <v>1244.186551977826</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E199" s="5">
         <v>6.67</v>
@@ -5077,10 +5096,10 @@
         <v>0</v>
       </c>
       <c r="G199" s="5">
-        <v>0.3170061117893254</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+        <v>0.31700611178932542</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>198</v>
       </c>
@@ -5091,7 +5110,7 @@
         <v>1049.95538088895</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E200" s="5">
         <v>4.16</v>
@@ -5100,10 +5119,10 @@
         <v>0</v>
       </c>
       <c r="G200" s="5">
-        <v>0.5347585854643676</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+        <v>0.53475858546436761</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>199</v>
       </c>
@@ -5111,10 +5130,10 @@
         <v>14</v>
       </c>
       <c r="C201" s="5">
-        <v>1048.908450543781</v>
+        <v>1048.9084505437811</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E201" s="5">
         <v>3.92</v>
@@ -5123,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="G201" s="5">
-        <v>0.501515947623187</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+        <v>0.50151594762318696</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -5134,10 +5153,10 @@
         <v>25</v>
       </c>
       <c r="C202" s="5">
-        <v>2800.089753821535</v>
+        <v>2800.0897538215349</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E202" s="5">
         <v>1.3</v>
@@ -5146,10 +5165,10 @@
         <v>0</v>
       </c>
       <c r="G202" s="5">
-        <v>0.3185126769560352</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+        <v>0.31851267695603519</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>201</v>
       </c>
@@ -5157,10 +5176,10 @@
         <v>11</v>
       </c>
       <c r="C203" s="5">
-        <v>27.63353734191086</v>
+        <v>27.633537341910859</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E203" s="5">
         <v>9.68</v>
@@ -5169,10 +5188,10 @@
         <v>0</v>
       </c>
       <c r="G203" s="5">
-        <v>0.4816481309877679</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+        <v>0.48164813098776788</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>202</v>
       </c>
@@ -5183,7 +5202,7 @@
         <v>1740.768416219719</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E204" s="5">
         <v>1.03</v>
@@ -5192,10 +5211,10 @@
         <v>1</v>
       </c>
       <c r="G204" s="5">
-        <v>-0.2686546265119349</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+        <v>-0.26865462651193489</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>203</v>
       </c>
@@ -5203,10 +5222,10 @@
         <v>7</v>
       </c>
       <c r="C205" s="5">
-        <v>531.700445086605</v>
+        <v>531.70044508660499</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E205" s="5">
         <v>9.68</v>
@@ -5215,10 +5234,10 @@
         <v>0</v>
       </c>
       <c r="G205" s="5">
-        <v>0.4758193063833386</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+        <v>0.47581930638333858</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>204</v>
       </c>
@@ -5226,10 +5245,10 @@
         <v>21</v>
       </c>
       <c r="C206" s="5">
-        <v>1346.211699216832</v>
+        <v>1346.2116992168319</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E206" s="5">
         <v>5.78</v>
@@ -5238,10 +5257,10 @@
         <v>1</v>
       </c>
       <c r="G206" s="5">
-        <v>-0.4307675323298106</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+        <v>-0.43076753232981058</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>205</v>
       </c>
@@ -5249,10 +5268,10 @@
         <v>23</v>
       </c>
       <c r="C207" s="5">
-        <v>1346.211699216832</v>
+        <v>1346.2116992168319</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E207" s="5">
         <v>5.78</v>
@@ -5261,10 +5280,10 @@
         <v>1</v>
       </c>
       <c r="G207" s="5">
-        <v>-0.448622900104607</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+        <v>-0.44862290010460698</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>206</v>
       </c>
@@ -5275,7 +5294,7 @@
         <v>1339.551669421216</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E208" s="5">
         <v>3.92</v>
@@ -5287,7 +5306,7 @@
         <v>-1.254470441916411</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+    <row r="209" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>207</v>
       </c>
@@ -5295,10 +5314,10 @@
         <v>15</v>
       </c>
       <c r="C209" s="5">
-        <v>1195.89564972591</v>
+        <v>1195.8956497259101</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E209" s="5">
         <v>4.04</v>
@@ -5307,10 +5326,10 @@
         <v>0</v>
       </c>
       <c r="G209" s="5">
-        <v>0.4935019893970268</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+        <v>0.49350198939702677</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>208</v>
       </c>
@@ -5321,7 +5340,7 @@
         <v>1189.114596795793</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E210" s="5">
         <v>4.04</v>
@@ -5330,10 +5349,10 @@
         <v>1</v>
       </c>
       <c r="G210" s="5">
-        <v>-0.2201859780347079</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+        <v>-0.22018597803470791</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>209</v>
       </c>
@@ -5341,10 +5360,10 @@
         <v>9</v>
       </c>
       <c r="C211" s="5">
-        <v>1048.908450543781</v>
+        <v>1048.9084505437811</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E211" s="5">
         <v>3.92</v>
@@ -5353,10 +5372,10 @@
         <v>2</v>
       </c>
       <c r="G211" s="5">
-        <v>-0.9716160438471425</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+        <v>-0.97161604384714251</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>210</v>
       </c>
@@ -5364,13 +5383,13 @@
         <v>42</v>
       </c>
       <c r="C212" s="5">
-        <v>742.7718554926944</v>
+        <v>742.77185549269439</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E212" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F212" s="7">
         <v>0</v>
@@ -5379,7 +5398,7 @@
         <v>0.1525342956156556</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+    <row r="213" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>211</v>
       </c>
@@ -5387,10 +5406,10 @@
         <v>18</v>
       </c>
       <c r="C213" s="5">
-        <v>37.87889487773086</v>
+        <v>37.878894877730858</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E213" s="5">
         <v>9.68</v>
@@ -5399,10 +5418,10 @@
         <v>2</v>
       </c>
       <c r="G213" s="5">
-        <v>-1.099460374978413</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+        <v>-1.0994603749784131</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>212</v>
       </c>
@@ -5410,10 +5429,10 @@
         <v>4</v>
       </c>
       <c r="C214" s="5">
-        <v>531.700445086605</v>
+        <v>531.70044508660499</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E214" s="5">
         <v>9.68</v>
@@ -5422,10 +5441,10 @@
         <v>0</v>
       </c>
       <c r="G214" s="5">
-        <v>0.5026023580455332</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+        <v>0.50260235804553322</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>213</v>
       </c>
@@ -5433,10 +5452,10 @@
         <v>10</v>
       </c>
       <c r="C215" s="5">
-        <v>824.9164228112168</v>
+        <v>824.91642281121676</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E215" s="5">
         <v>6.67</v>
@@ -5445,10 +5464,10 @@
         <v>0</v>
       </c>
       <c r="G215" s="5">
-        <v>0.512255979271446</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+        <v>0.51225597927144595</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>214</v>
       </c>
@@ -5456,10 +5475,10 @@
         <v>10</v>
       </c>
       <c r="C216" s="5">
-        <v>1371.40531868246</v>
+        <v>1371.4053186824599</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E216" s="5">
         <v>5.78</v>
@@ -5468,10 +5487,10 @@
         <v>1</v>
       </c>
       <c r="G216" s="5">
-        <v>-0.3346391860743876</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+        <v>-0.33463918607438758</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>215</v>
       </c>
@@ -5479,10 +5498,10 @@
         <v>4</v>
       </c>
       <c r="C217" s="5">
-        <v>513.4906606297532</v>
+        <v>513.49066062975317</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E217" s="5">
         <v>6.67</v>
@@ -5491,10 +5510,10 @@
         <v>0</v>
       </c>
       <c r="G217" s="5">
-        <v>0.5914863128456044</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+        <v>0.59148631284560438</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>216</v>
       </c>
@@ -5502,10 +5521,10 @@
         <v>10</v>
       </c>
       <c r="C218" s="5">
-        <v>523.6457985381546</v>
+        <v>523.64579853815462</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E218" s="5">
         <v>6.67</v>
@@ -5514,10 +5533,10 @@
         <v>0</v>
       </c>
       <c r="G218" s="5">
-        <v>0.5370833365673731</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+        <v>0.53708333656737306</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>217</v>
       </c>
@@ -5525,10 +5544,10 @@
         <v>4</v>
       </c>
       <c r="C219" s="5">
-        <v>8093.585485385148</v>
+        <v>8093.5854853851479</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E219" s="5">
         <v>6.67</v>
@@ -5537,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="G219" s="5">
-        <v>-0.03318037347771013</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+        <v>-3.3180373477710128E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>218</v>
       </c>
@@ -5548,10 +5567,10 @@
         <v>10</v>
       </c>
       <c r="C220" s="5">
-        <v>905.6418871979532</v>
+        <v>905.64188719795322</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E220" s="5">
         <v>3.92</v>
@@ -5560,10 +5579,10 @@
         <v>2</v>
       </c>
       <c r="G220" s="5">
-        <v>-0.9687372989951674</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+        <v>-0.96873729899516736</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>219</v>
       </c>
@@ -5574,7 +5593,7 @@
         <v>1049.95538088895</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E221" s="5">
         <v>4.16</v>
@@ -5583,10 +5602,10 @@
         <v>0</v>
       </c>
       <c r="G221" s="5">
-        <v>0.5704693210139604</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+        <v>0.57046932101396042</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>220</v>
       </c>
@@ -5594,22 +5613,22 @@
         <v>3</v>
       </c>
       <c r="C222" s="5">
-        <v>531.700445086605</v>
+        <v>531.70044508660499</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E222" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F222" s="7">
         <v>0</v>
       </c>
       <c r="G222" s="5">
-        <v>0.518108113546123</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+        <v>0.51810811354612296</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>221</v>
       </c>
@@ -5617,10 +5636,10 @@
         <v>3</v>
       </c>
       <c r="C223" s="5">
-        <v>529.1955829616849</v>
+        <v>529.19558296168486</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E223" s="5">
         <v>9.68</v>
@@ -5629,10 +5648,10 @@
         <v>0</v>
       </c>
       <c r="G223" s="5">
-        <v>0.5117364646703041</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+        <v>0.51173646467030409</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>222</v>
       </c>
@@ -5640,10 +5659,10 @@
         <v>4</v>
       </c>
       <c r="C224" s="5">
-        <v>15.57426274070816</v>
+        <v>15.574262740708161</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E224" s="5">
         <v>9.68</v>
@@ -5652,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="G224" s="5">
-        <v>0.5451357088154714</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+        <v>0.54513570881547135</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>223</v>
       </c>
@@ -5663,10 +5682,10 @@
         <v>14</v>
       </c>
       <c r="C225" s="5">
-        <v>207.7989927573335</v>
+        <v>207.79899275733351</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E225" s="5">
         <v>9.68</v>
@@ -5675,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="G225" s="5">
-        <v>0.4400178563519591</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+        <v>0.44001785635195911</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>224</v>
       </c>
@@ -5686,10 +5705,10 @@
         <v>21</v>
       </c>
       <c r="C226" s="5">
-        <v>387.2345709203736</v>
+        <v>387.23457092037359</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E226" s="5">
         <v>9.68</v>
@@ -5698,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="G226" s="5">
-        <v>0.3627369944912432</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+        <v>0.36273699449124319</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>225</v>
       </c>
@@ -5709,10 +5728,10 @@
         <v>28</v>
       </c>
       <c r="C227" s="5">
-        <v>2.902417929334273</v>
+        <v>2.9024179293342729</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E227" s="5">
         <v>9.68</v>
@@ -5721,10 +5740,10 @@
         <v>0</v>
       </c>
       <c r="G227" s="5">
-        <v>0.3319155673233377</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+        <v>0.33191556732333771</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>226</v>
       </c>
@@ -5732,10 +5751,10 @@
         <v>10</v>
       </c>
       <c r="C228" s="5">
-        <v>1.881902455581899</v>
+        <v>1.8819024555818991</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E228" s="5">
         <v>9.68</v>
@@ -5744,10 +5763,10 @@
         <v>0</v>
       </c>
       <c r="G228" s="5">
-        <v>0.492697976774687</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+        <v>0.49269797677468702</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>227</v>
       </c>
@@ -5755,10 +5774,10 @@
         <v>21</v>
       </c>
       <c r="C229" s="5">
-        <v>480.3136660101411</v>
+        <v>480.31366601014111</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E229" s="5">
         <v>9.68</v>
@@ -5767,10 +5786,10 @@
         <v>0</v>
       </c>
       <c r="G229" s="5">
-        <v>0.3550664558977404</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+        <v>0.35506645589774039</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>228</v>
       </c>
@@ -5778,10 +5797,10 @@
         <v>21</v>
       </c>
       <c r="C230" s="5">
-        <v>387.2345709203736</v>
+        <v>387.23457092037359</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E230" s="5">
         <v>9.68</v>
@@ -5790,10 +5809,10 @@
         <v>0</v>
       </c>
       <c r="G230" s="5">
-        <v>0.3627369944912432</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+        <v>0.36273699449124319</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>229</v>
       </c>
@@ -5801,10 +5820,10 @@
         <v>21</v>
       </c>
       <c r="C231" s="5">
-        <v>43.95837434008209</v>
+        <v>43.958374340082088</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E231" s="5">
         <v>9.68</v>
@@ -5813,10 +5832,10 @@
         <v>0</v>
       </c>
       <c r="G231" s="5">
-        <v>0.3910259815249115</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+        <v>0.39102598152491153</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>230</v>
       </c>
@@ -5824,10 +5843,10 @@
         <v>21</v>
       </c>
       <c r="C232" s="5">
-        <v>453.2667441086086</v>
+        <v>453.26674410860858</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E232" s="5">
         <v>9.68</v>
@@ -5836,10 +5855,10 @@
         <v>0</v>
       </c>
       <c r="G232" s="5">
-        <v>0.3572953608745355</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+        <v>0.35729536087453551</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>231</v>
       </c>
@@ -5847,10 +5866,10 @@
         <v>14</v>
       </c>
       <c r="C233" s="5">
-        <v>451.2636913105088</v>
+        <v>451.26369131050882</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E233" s="5">
         <v>6.67</v>
@@ -5859,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="G233" s="5">
-        <v>0.5073375252194312</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+        <v>0.50733752521943121</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>232</v>
       </c>
@@ -5870,10 +5889,10 @@
         <v>4</v>
       </c>
       <c r="C234" s="5">
-        <v>15.57426274070816</v>
+        <v>15.574262740708161</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E234" s="5">
         <v>9.68</v>
@@ -5882,10 +5901,10 @@
         <v>0</v>
       </c>
       <c r="G234" s="5">
-        <v>0.5451357088154714</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+        <v>0.54513570881547135</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>233</v>
       </c>
@@ -5893,10 +5912,10 @@
         <v>20</v>
       </c>
       <c r="C235" s="5">
-        <v>361.4581152443967</v>
+        <v>361.45811524439671</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E235" s="5">
         <v>9.68</v>
@@ -5905,10 +5924,10 @@
         <v>2</v>
       </c>
       <c r="G235" s="5">
-        <v>-1.143981525177118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+        <v>-1.1439815251771179</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>234</v>
       </c>
@@ -5916,10 +5935,10 @@
         <v>20</v>
       </c>
       <c r="C236" s="5">
-        <v>361.4581152443967</v>
+        <v>361.45811524439671</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E236" s="5">
         <v>9.68</v>
@@ -5928,10 +5947,10 @@
         <v>2</v>
       </c>
       <c r="G236" s="5">
-        <v>-1.143981525177118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+        <v>-1.1439815251771179</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>235</v>
       </c>
@@ -5939,10 +5958,10 @@
         <v>20</v>
       </c>
       <c r="C237" s="5">
-        <v>361.4581152443967</v>
+        <v>361.45811524439671</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E237" s="5">
         <v>9.68</v>
@@ -5951,10 +5970,10 @@
         <v>2</v>
       </c>
       <c r="G237" s="5">
-        <v>-1.143981525177118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+        <v>-1.1439815251771179</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>236</v>
       </c>
@@ -5962,10 +5981,10 @@
         <v>20</v>
       </c>
       <c r="C238" s="5">
-        <v>361.4581152443967</v>
+        <v>361.45811524439671</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E238" s="5">
         <v>9.68</v>
@@ -5974,10 +5993,10 @@
         <v>2</v>
       </c>
       <c r="G238" s="5">
-        <v>-1.143981525177118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+        <v>-1.1439815251771179</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>237</v>
       </c>
@@ -5985,10 +6004,10 @@
         <v>60</v>
       </c>
       <c r="C239" s="5">
-        <v>361.4581152443967</v>
+        <v>361.45811524439671</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E239" s="5">
         <v>9.68</v>
@@ -6000,7 +6019,7 @@
         <v>-1.501088880673046</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+    <row r="240" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>238</v>
       </c>
@@ -6008,10 +6027,10 @@
         <v>20</v>
       </c>
       <c r="C240" s="5">
-        <v>361.4581152443967</v>
+        <v>361.45811524439671</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E240" s="5">
         <v>9.68</v>
@@ -6020,10 +6039,10 @@
         <v>2</v>
       </c>
       <c r="G240" s="5">
-        <v>-1.143981525177118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+        <v>-1.1439815251771179</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>239</v>
       </c>
@@ -6031,10 +6050,10 @@
         <v>20</v>
       </c>
       <c r="C241" s="5">
-        <v>361.4581152443967</v>
+        <v>361.45811524439671</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E241" s="5">
         <v>9.68</v>
@@ -6043,10 +6062,10 @@
         <v>2</v>
       </c>
       <c r="G241" s="5">
-        <v>-1.143981525177118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+        <v>-1.1439815251771179</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>240</v>
       </c>
@@ -6054,10 +6073,10 @@
         <v>20</v>
       </c>
       <c r="C242" s="5">
-        <v>361.4581152443967</v>
+        <v>361.45811524439671</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E242" s="5">
         <v>9.68</v>
@@ -6066,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="G242" s="5">
-        <v>-1.143981525177118</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+        <v>-1.1439815251771179</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>241</v>
       </c>
@@ -6080,7 +6099,7 @@
         <v>1740.768416219719</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E243" s="5">
         <v>1.03</v>
@@ -6089,10 +6108,10 @@
         <v>2</v>
       </c>
       <c r="G243" s="5">
-        <v>-0.9829014125286042</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+        <v>-0.98290141252860419</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>242</v>
       </c>
@@ -6100,10 +6119,10 @@
         <v>35</v>
       </c>
       <c r="C244" s="5">
-        <v>2214.825252493896</v>
+        <v>2214.8252524938962</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E244" s="5">
         <v>16.23</v>
@@ -6112,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="G244" s="5">
-        <v>-0.1255408638263757</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+        <v>-0.12554086382637569</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>243</v>
       </c>
@@ -6123,10 +6142,10 @@
         <v>14</v>
       </c>
       <c r="C245" s="5">
-        <v>1048.908450543781</v>
+        <v>1048.9084505437811</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E245" s="5">
         <v>3.92</v>
@@ -6135,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="G245" s="5">
-        <v>0.501515947623187</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+        <v>0.50151594762318696</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>244</v>
       </c>
@@ -6146,10 +6165,10 @@
         <v>10</v>
       </c>
       <c r="C246" s="5">
-        <v>801.327339726479</v>
+        <v>801.32733972647895</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E246" s="5">
         <v>1.03</v>
@@ -6158,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="G246" s="5">
-        <v>0.612681648177767</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+        <v>0.61268164817776705</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>245</v>
       </c>
@@ -6169,10 +6188,10 @@
         <v>21</v>
       </c>
       <c r="C247" s="5">
-        <v>435.3134356036826</v>
+        <v>435.31343560368259</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E247" s="5">
         <v>9.68</v>
@@ -6181,10 +6200,10 @@
         <v>0</v>
       </c>
       <c r="G247" s="5">
-        <v>0.3587748718821928</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+        <v>0.35877487188219281</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>246</v>
       </c>
@@ -6195,7 +6214,7 @@
         <v>26.08257939303482</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E248" s="5">
         <v>9.68</v>
@@ -6204,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="G248" s="5">
-        <v>0.4460652080559523</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+        <v>0.44606520805595229</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>247</v>
       </c>
@@ -6215,10 +6234,10 @@
         <v>25</v>
       </c>
       <c r="C249" s="5">
-        <v>453.2667441086086</v>
+        <v>453.26674410860858</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E249" s="5">
         <v>9.68</v>
@@ -6230,7 +6249,7 @@
         <v>0.3215846253249427</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+    <row r="250" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>248</v>
       </c>
@@ -6238,10 +6257,10 @@
         <v>21</v>
       </c>
       <c r="C250" s="5">
-        <v>435.3134356036826</v>
+        <v>435.31343560368259</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E250" s="5">
         <v>9.68</v>
@@ -6250,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="G250" s="5">
-        <v>0.3587748718821928</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+        <v>0.35877487188219281</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>249</v>
       </c>
@@ -6261,10 +6280,10 @@
         <v>56</v>
       </c>
       <c r="C251" s="5">
-        <v>1149.802430316858</v>
+        <v>1149.8024303168579</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E251" s="5">
         <v>3.92</v>
@@ -6276,7 +6295,7 @@
         <v>0.1182386703169398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+    <row r="252" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>250</v>
       </c>
@@ -6284,22 +6303,22 @@
         <v>56</v>
       </c>
       <c r="C252" s="5">
-        <v>669.9723368095175</v>
+        <v>669.97233680951751</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E252" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F252" s="7">
         <v>0</v>
       </c>
       <c r="G252" s="5">
-        <v>0.03354604378013576</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+        <v>3.3546043780135759E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>251</v>
       </c>
@@ -6307,10 +6326,10 @@
         <v>14</v>
       </c>
       <c r="C253" s="5">
-        <v>600.8924465851845</v>
+        <v>600.89244658518453</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E253" s="5">
         <v>6.67</v>
@@ -6319,10 +6338,10 @@
         <v>0</v>
       </c>
       <c r="G253" s="5">
-        <v>0.4950067957368841</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+        <v>0.49500679573688411</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -6330,10 +6349,10 @@
         <v>10</v>
       </c>
       <c r="C254" s="5">
-        <v>435.3134356036826</v>
+        <v>435.31343560368259</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E254" s="5">
         <v>9.68</v>
@@ -6345,7 +6364,7 @@
         <v>0.4569793946435729</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+    <row r="255" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>253</v>
       </c>
@@ -6353,10 +6372,10 @@
         <v>28</v>
       </c>
       <c r="C255" s="5">
-        <v>551.8092961120688</v>
+        <v>551.80929611206875</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E255" s="5">
         <v>9.68</v>
@@ -6365,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="G255" s="5">
-        <v>0.286680798020099</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+        <v>0.28668079802009899</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>254</v>
       </c>
@@ -6379,7 +6398,7 @@
         <v>1944.619039569345</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E256" s="5">
         <v>3.19</v>
@@ -6391,7 +6410,7 @@
         <v>-1.25744599294523</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+    <row r="257" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>255</v>
       </c>
@@ -6399,10 +6418,10 @@
         <v>21</v>
       </c>
       <c r="C257" s="5">
-        <v>28.79095579599661</v>
+        <v>28.790955795996609</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E257" s="5">
         <v>9.68</v>
@@ -6411,10 +6430,10 @@
         <v>0</v>
       </c>
       <c r="G257" s="5">
-        <v>0.3922759106222455</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+        <v>0.39227591062224548</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>256</v>
       </c>
@@ -6422,22 +6441,22 @@
         <v>14</v>
       </c>
       <c r="C258" s="5">
-        <v>687.0394847375309</v>
+        <v>687.03948473753087</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E258" s="5">
-        <v>9.37</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="F258" s="7">
         <v>1</v>
       </c>
       <c r="G258" s="5">
-        <v>-0.3517829219610752</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+        <v>-0.35178292196107519</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>257</v>
       </c>
@@ -6448,7 +6467,7 @@
         <v>1190.572504148789</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E259" s="5">
         <v>5.78</v>
@@ -6457,10 +6476,10 @@
         <v>0</v>
       </c>
       <c r="G259" s="5">
-        <v>0.3677267675325899</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+        <v>0.36772676753258993</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>258</v>
       </c>
@@ -6468,10 +6487,10 @@
         <v>22</v>
       </c>
       <c r="C260" s="5">
-        <v>1066.073041289835</v>
+        <v>1066.0730412898349</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E260" s="5">
         <v>3.92</v>
@@ -6480,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="G260" s="5">
-        <v>0.4286799628178646</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
+        <v>0.42867996281786458</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>259</v>
       </c>
@@ -6491,10 +6510,10 @@
         <v>22</v>
       </c>
       <c r="C261" s="5">
-        <v>1449.18240336355</v>
+        <v>1449.1824033635501</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E261" s="5">
         <v>3.92</v>
@@ -6503,10 +6522,10 @@
         <v>0</v>
       </c>
       <c r="G261" s="5">
-        <v>0.3971083715332201</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+        <v>0.39710837153322009</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>260</v>
       </c>
@@ -6514,10 +6533,10 @@
         <v>28</v>
       </c>
       <c r="C262" s="5">
-        <v>1028.044417804685</v>
+        <v>1028.0444178046851</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E262" s="5">
         <v>3.92</v>
@@ -6526,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="G262" s="5">
-        <v>0.3782477535630226</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
+        <v>0.37824775356302259</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>261</v>
       </c>
@@ -6540,7 +6559,7 @@
         <v>1339.551669421216</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E263" s="5">
         <v>3.92</v>
@@ -6549,10 +6568,10 @@
         <v>0</v>
       </c>
       <c r="G263" s="5">
-        <v>0.3257937562026968</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
+        <v>0.32579375620269679</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>262</v>
       </c>
@@ -6560,10 +6579,10 @@
         <v>10</v>
       </c>
       <c r="C264" s="5">
-        <v>38.35793303920683</v>
+        <v>38.357933039206827</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E264" s="5">
         <v>9.68</v>
@@ -6572,10 +6591,11 @@
         <v>0</v>
       </c>
       <c r="G264" s="5">
-        <v>0.4896920300574391</v>
+        <v>0.48969203005743911</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>